--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data and T Test" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
@@ -77,6 +78,27 @@
   </si>
   <si>
     <t xml:space="preserve">Means</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom Kernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBF with Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polynomial Kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBF and Polynomial Hybrid Kernel</t>
   </si>
 </sst>
 </file>
@@ -201,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,6 +262,10 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -314,7 +340,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -530,11 +556,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="6048342"/>
-        <c:axId val="9509961"/>
+        <c:axId val="49254618"/>
+        <c:axId val="45824102"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6048342"/>
+        <c:axId val="49254618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9509961"/>
+        <c:crossAx val="45824102"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -570,7 +596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9509961"/>
+        <c:axId val="45824102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -637,7 +663,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6048342"/>
+        <c:crossAx val="49254618"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -727,8 +753,8 @@
   </sheetPr>
   <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4666,4 +4692,2829 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E254"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E128" activeCellId="0" sqref="E128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -28,16 +28,10 @@
     <t xml:space="preserve">Kernels</t>
   </si>
   <si>
-    <t xml:space="preserve">Alpha</t>
-  </si>
-  <si>
     <t xml:space="preserve">Control</t>
   </si>
   <si>
     <t xml:space="preserve">Custom Kernels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypothesized Mean Difference</t>
   </si>
   <si>
     <t xml:space="preserve">RBF</t>
@@ -155,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -168,13 +162,6 @@
       <right/>
       <top style="hair"/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -210,7 +197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,11 +210,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,16 +230,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -319,7 +318,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart92.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -495,11 +494,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="54971906"/>
-        <c:axId val="39894152"/>
+        <c:axId val="52394644"/>
+        <c:axId val="40717119"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54971906"/>
+        <c:axId val="52394644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +554,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39894152"/>
+        <c:crossAx val="40717119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -563,7 +562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39894152"/>
+        <c:axId val="40717119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -630,7 +629,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54971906"/>
+        <c:crossAx val="52394644"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -688,7 +687,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart93.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -864,11 +863,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="67981504"/>
-        <c:axId val="41504046"/>
+        <c:axId val="61054929"/>
+        <c:axId val="9459443"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67981504"/>
+        <c:axId val="61054929"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +923,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41504046"/>
+        <c:crossAx val="9459443"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -932,7 +931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41504046"/>
+        <c:axId val="9459443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -999,7 +998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67981504"/>
+        <c:crossAx val="61054929"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1018,10 +1017,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.707267983600447"/>
-          <c:y val="0.0196479738027016"/>
-          <c:w val="0.247633246366008"/>
-          <c:h val="0.149406467458043"/>
+          <c:x val="0.707246160727598"/>
+          <c:y val="0.0708242358078603"/>
+          <c:w val="0.247577158192933"/>
+          <c:h val="0.1492903930131"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1057,7 +1056,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart94.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1233,11 +1232,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="33273273"/>
-        <c:axId val="1250209"/>
+        <c:axId val="61282009"/>
+        <c:axId val="96596917"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33273273"/>
+        <c:axId val="61282009"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1292,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1250209"/>
+        <c:crossAx val="96596917"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1250209"/>
+        <c:axId val="96596917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1368,7 +1367,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33273273"/>
+        <c:crossAx val="61282009"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1461,15 +1460,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>268920</xdr:colOff>
+      <xdr:colOff>387360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>221040</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:colOff>339480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1477,7 +1476,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15152400" y="3057480"/>
+        <a:off x="15270840" y="3190680"/>
         <a:ext cx="4829040" cy="2638080"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1565,8 +1564,8 @@
   </sheetPr>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="1" sqref="G39:I39 F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1595,49 +1594,41 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="G2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>7</v>
+      <c r="H4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,7 +1648,7 @@
         <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">AVERAGE(B5:B104)</f>
@@ -1685,7 +1676,7 @@
         <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">STDEV(B5:B104)</f>
@@ -1713,7 +1704,7 @@
         <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="n">
         <f aca="false">H6^2</f>
@@ -1741,7 +1732,7 @@
         <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="n">
         <f aca="false">H6/SQRT(H9)</f>
@@ -1769,7 +1760,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>100</v>
@@ -1795,7 +1786,7 @@
         <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>-0.21</v>
@@ -1818,7 +1809,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>31.379697</v>
@@ -1841,7 +1832,7 @@
         <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>198</v>
@@ -1864,7 +1855,7 @@
         <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">(H5-I5)/SQRT(ABS(H7/H9-I7/H9))</f>
@@ -1888,7 +1879,7 @@
         <v>75</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>1.6526</v>
@@ -1911,7 +1902,7 @@
         <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7" t="n">
         <f aca="false">_xlfn.T.TEST(B5:B104,C5:C104,1,2)</f>
@@ -1935,6 +1926,7 @@
       <c r="E16" s="1" t="n">
         <v>75</v>
       </c>
+      <c r="G16" s="0"/>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,12 +1945,8 @@
       <c r="E17" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,12 +1965,8 @@
       <c r="E18" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,11 +1985,11 @@
       <c r="E19" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>21</v>
+      <c r="H19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +2009,7 @@
         <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H20" s="1" t="n">
         <f aca="false">AVERAGE(B5:B104)</f>
@@ -2053,7 +2037,7 @@
         <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1" t="n">
         <f aca="false">STDEV(B5:B104)</f>
@@ -2081,7 +2065,7 @@
         <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1" t="n">
         <f aca="false">H21^2</f>
@@ -2109,7 +2093,7 @@
         <v>50</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1" t="n">
         <f aca="false">H21/SQRT(H24)</f>
@@ -2137,7 +2121,7 @@
         <v>62</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>100</v>
@@ -2163,7 +2147,7 @@
         <v>79</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">H20-I20</f>
@@ -2187,7 +2171,7 @@
         <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>223.641515</v>
@@ -2210,7 +2194,7 @@
         <v>67</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>198</v>
@@ -2233,7 +2217,7 @@
         <v>50</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">(H20-I20)/SQRT(ABS(H22/H24-I22/H24))</f>
@@ -2257,7 +2241,7 @@
         <v>79</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>1.6526</v>
@@ -2280,7 +2264,7 @@
         <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H30" s="7" t="n">
         <f aca="false">_xlfn.T.TEST(B5:B104,D5:D104,1,3)</f>
@@ -2321,12 +2305,8 @@
       <c r="E32" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,12 +2325,8 @@
       <c r="E33" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,11 +2345,11 @@
       <c r="E34" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>22</v>
+      <c r="H34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,7 +2369,7 @@
         <v>62</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35" s="1" t="n">
         <f aca="false">AVERAGE(B5:B104)</f>
@@ -2421,7 +2397,7 @@
         <v>92</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">STDEV(B5:B104)</f>
@@ -2449,7 +2425,7 @@
         <v>58</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">H36^2</f>
@@ -2477,7 +2453,7 @@
         <v>46</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">H36/SQRT(H39)</f>
@@ -2505,7 +2481,7 @@
         <v>54</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>100</v>
@@ -2531,7 +2507,7 @@
         <v>67</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>-0.6</v>
@@ -2554,7 +2530,7 @@
         <v>54</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>93.959596</v>
@@ -2577,7 +2553,7 @@
         <v>50</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>198</v>
@@ -2600,7 +2576,7 @@
         <v>54</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H43" s="1" t="n">
         <f aca="false">(H35-I35)/SQRT(ABS(H37/H39-I37/H39))</f>
@@ -2624,7 +2600,7 @@
         <v>67</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>1.6526</v>
@@ -2647,7 +2623,7 @@
         <v>62</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H45" s="7" t="n">
         <f aca="false">_xlfn.T.TEST(B5:B104,E5:E104,1,3)</f>
@@ -3659,22 +3635,22 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="3" t="n">
+      <c r="A105" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="11" t="n">
         <f aca="false">AVERAGE(B5:B104)</f>
         <v>63.85</v>
       </c>
-      <c r="C105" s="3" t="n">
+      <c r="C105" s="11" t="n">
         <f aca="false">AVERAGE(C5:C104)</f>
         <v>64.06</v>
       </c>
-      <c r="D105" s="3" t="n">
+      <c r="D105" s="11" t="n">
         <f aca="false">AVERAGE(D5:D104)</f>
         <v>47.92</v>
       </c>
-      <c r="E105" s="3" t="n">
+      <c r="E105" s="11" t="n">
         <f aca="false">AVERAGE(E5:E104)</f>
         <v>64.45</v>
       </c>
@@ -3686,7 +3662,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="85" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
